--- a/data/hotels_by_city/Houston/Houston_shard_357.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d98981-Reviews-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-SW-Sugar-Land-Area.h6399.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,846 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r589345344-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98981</t>
+  </si>
+  <si>
+    <t>589345344</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the nicest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got our room, one bed was not made completely, there was a used towel on the sink, and the room smelled like mildew. No mini fridge or microwave. I would not recommend, but my daughter got it for 60 a night, so I guess that's was you get. Though the price for non members on Hotels.com was 97 a night. You should not pay that much. Wasn't worth it, you can get a Hilton for that price. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r587931722-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587931722</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>COCKROACHES... Big ones, little ones... you name it!</t>
+  </si>
+  <si>
+    <t>This hotel has COCKROACHES.  I was still on pacific time when I discovered them crawling around my wallet, glasses, and keys that I had left on the TV stand at 1 am.  Disgusting!!  I quickly went through my things, packed up, and went to check out.  The employee at the front desk was nice at first wondering why I was leaving at 1 am, but when I told him the reasoning behind my early checkout his demeanor changed.  He became rude and refused to check me out.  His dishonest excuse was that their computer system did not allow customers who booked online to check out.  I sat in the hotel parking lot, in my rental car, looking for another hotel.  As I did not want to be charged for staying at a hotel that I did not actually occupy, I tried to contact the hotel manager for a refund afterwards.  I was not able to get a hold of the hotel manager and his voicemail box was always full.  Thank you Orbitz for getting me a refund.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This hotel has COCKROACHES.  I was still on pacific time when I discovered them crawling around my wallet, glasses, and keys that I had left on the TV stand at 1 am.  Disgusting!!  I quickly went through my things, packed up, and went to check out.  The employee at the front desk was nice at first wondering why I was leaving at 1 am, but when I told him the reasoning behind my early checkout his demeanor changed.  He became rude and refused to check me out.  His dishonest excuse was that their computer system did not allow customers who booked online to check out.  I sat in the hotel parking lot, in my rental car, looking for another hotel.  As I did not want to be charged for staying at a hotel that I did not actually occupy, I tried to contact the hotel manager for a refund afterwards.  I was not able to get a hold of the hotel manager and his voicemail box was always full.  Thank you Orbitz for getting me a refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r583181769-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583181769</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Good Service, Clean room but not recommend for families</t>
+  </si>
+  <si>
+    <t>I particularly thanks to the guy from the desk that gave us a different room less noisy from the air con. We only were very disappoint for the location of the hotel and the ppl that was coming from outside, I wouldn’t suggest this hotel for couple with kids,  there are criminals and prostitution activities in and out the hotel, we found to many rubbish and mess due to the weekend events</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r554186974-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554186974</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel - Bad Water situation</t>
+  </si>
+  <si>
+    <t>The hotel was conveniently located for our travel needs, right at the intersection of the Sam Houston Tollway and 59.  Parking was easy, the hotel was clean, and the front desk staff were attentive.  Lots of amenities with an indoor pool and attached restaurant.  (Although beware the breakfast advertised doesn't exactly match the menu offerings.)  We stayed for two nights, and each morning the water both had very little pressure and was cold.  I couldn't take a shower in the morning at all.  I had to wash my face in the sink and wait until evening.  Even at night, the water was only mildly warm, and the water pressure was still low.  That's kind of a deal breaker for me.  I have to be able to take a comfortable shower, and if the hotel isn't able to accomodate, I'd have to say I won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was conveniently located for our travel needs, right at the intersection of the Sam Houston Tollway and 59.  Parking was easy, the hotel was clean, and the front desk staff were attentive.  Lots of amenities with an indoor pool and attached restaurant.  (Although beware the breakfast advertised doesn't exactly match the menu offerings.)  We stayed for two nights, and each morning the water both had very little pressure and was cold.  I couldn't take a shower in the morning at all.  I had to wash my face in the sink and wait until evening.  Even at night, the water was only mildly warm, and the water pressure was still low.  That's kind of a deal breaker for me.  I have to be able to take a comfortable shower, and if the hotel isn't able to accomodate, I'd have to say I won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r539865055-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539865055</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>good clean and modern</t>
+  </si>
+  <si>
+    <t>the hotel is in good location at beltway and southwest Houston. it is packed on weekends and the employees are excellent. the rooms were clean and in nice condition as most Holiday Inn are. . the inn is well maintained</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r526986573-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526986573</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Just ok.</t>
+  </si>
+  <si>
+    <t>Holiday Inn is usually my go to. Because of the massive flooding caused by hurricane Harvey I think they are doing a fine job. So I won't criticize the effort. I can say that the front office staff is a bit less than the normal professionals I expect. The bar/restaurant gives me a sour stomach every time I attempt to patronize it. Hopefully the recent events are the reason I'm disappointed. Keep trying! I know you will recover!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn is usually my go to. Because of the massive flooding caused by hurricane Harvey I think they are doing a fine job. So I won't criticize the effort. I can say that the front office staff is a bit less than the normal professionals I expect. The bar/restaurant gives me a sour stomach every time I attempt to patronize it. Hopefully the recent events are the reason I'm disappointed. Keep trying! I know you will recover!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r500398430-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500398430</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Texas is Hot Hot Hot...</t>
+  </si>
+  <si>
+    <t>...so when you come in from the heat you expect your room to be nice and cool.  Our room did not get cool.  I was sweating in my sleep and I'm cold natured.  Our room was on the 3rd floor and our travel companion was on the first floor.  She said her room was freezing.  So, I guess it depends on where you are.  Also, our showers water pressure was very low.The hotel appears to have been recently renovated. Staff at the front desk were very nice and offered us water when they learned of how far we'd traveled.  It was most appreciated.  The hotel is in great proximity of the interstate, all types of restaurants, and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>...so when you come in from the heat you expect your room to be nice and cool.  Our room did not get cool.  I was sweating in my sleep and I'm cold natured.  Our room was on the 3rd floor and our travel companion was on the first floor.  She said her room was freezing.  So, I guess it depends on where you are.  Also, our showers water pressure was very low.The hotel appears to have been recently renovated. Staff at the front desk were very nice and offered us water when they learned of how far we'd traveled.  It was most appreciated.  The hotel is in great proximity of the interstate, all types of restaurants, and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r490682410-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490682410</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Very good value</t>
+  </si>
+  <si>
+    <t>Decent clean room for the price, right off the SouthWest Freeway which can be good or bad.  There's highway noise so ask for a rear facing room and it's relatively quiet.  I was disappointed that breakfast was not included, thought all Holiday Inns had free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Decent clean room for the price, right off the SouthWest Freeway which can be good or bad.  There's highway noise so ask for a rear facing room and it's relatively quiet.  I was disappointed that breakfast was not included, thought all Holiday Inns had free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r486491823-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486491823</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>It was my second time at this hotel in 2 months. The hotel property is good. The safety, security, ambiance is good. Rooms are nice and clean. The surrounding areas are safe and the parking lot always has an on duty security guard at night.The hotel staff is courteous and polite. However, the same can't be said about the restaurant staff. The hotel needs to work on their communication of breakfast policies to guests. We paid for 3 nights and could only get breakfast once. While I believe the hotel staff were apologetic about it, but I believe they've leased out the restaurant to a third party and thus couldn't intervene much (that's what the on duty front desk staff told us).I would certainly stay again and recommend this hotel minus the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>It was my second time at this hotel in 2 months. The hotel property is good. The safety, security, ambiance is good. Rooms are nice and clean. The surrounding areas are safe and the parking lot always has an on duty security guard at night.The hotel staff is courteous and polite. However, the same can't be said about the restaurant staff. The hotel needs to work on their communication of breakfast policies to guests. We paid for 3 nights and could only get breakfast once. While I believe the hotel staff were apologetic about it, but I believe they've leased out the restaurant to a third party and thus couldn't intervene much (that's what the on duty front desk staff told us).I would certainly stay again and recommend this hotel minus the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r468059440-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468059440</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Good price, aging hotel</t>
+  </si>
+  <si>
+    <t>The price is the main reason we chose this specific Holiday Inn. We booked early (5 days, 4 nights) to save on breakfast. Every morning was an ordeal because the guy who checked us in did not give us vouchers for breakfast &amp; that caused problems with the waitress. Selection was minimal &amp; our orders were wrong 2 mornings. The parking lot needs repair &amp; not all outside doors can be entered while others are not even locked. The lobby &amp; check in are kept nicely. The rooms are small and are not updated. The indoor pool was freezing &amp; the hot tub did not work. The hot tub was filthy. Their solution was to put yellow caution tape around it. The first full day, there was no housekeeping visit to our room &amp; I had to call down for more towels. They are pretty stingy with those and we had to share more than once.  The room keys did not always work. Also, there were zip ties found in the room... this seems odd to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Joelhey B, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>The price is the main reason we chose this specific Holiday Inn. We booked early (5 days, 4 nights) to save on breakfast. Every morning was an ordeal because the guy who checked us in did not give us vouchers for breakfast &amp; that caused problems with the waitress. Selection was minimal &amp; our orders were wrong 2 mornings. The parking lot needs repair &amp; not all outside doors can be entered while others are not even locked. The lobby &amp; check in are kept nicely. The rooms are small and are not updated. The indoor pool was freezing &amp; the hot tub did not work. The hot tub was filthy. Their solution was to put yellow caution tape around it. The first full day, there was no housekeeping visit to our room &amp; I had to call down for more towels. They are pretty stingy with those and we had to share more than once.  The room keys did not always work. Also, there were zip ties found in the room... this seems odd to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r467700129-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467700129</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Discrimination: Blacks checked in before whites</t>
+  </si>
+  <si>
+    <t>I had a prepaid reservation that was guaranteed and the earliest check was at 3:00 PM. I stopped by at 1:45 PM to take care of the paper work and see if I can check in early. I was told rooms will not be ready until 3:000 PM. I came back at 2:45 PM and told rooms were still not ready. I asked to use the restroom around the corner and was gone a minute and when I return, I see the black front desk agent checking in a black man before 3:00 PM.  Obvious I was discriminated and lied too. After the black man checked in, the front desk agent left avoiding checking me in as he saw I took a photo of him discriminating against me. The guest services manager uses this website as a sounding board with baseless facts and an unprofessional weak excuse saying the other person would pre-block their reservation the night before.  Ignore any response as this hotel are embarrassed and angry they were busted.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>I had a prepaid reservation that was guaranteed and the earliest check was at 3:00 PM. I stopped by at 1:45 PM to take care of the paper work and see if I can check in early. I was told rooms will not be ready until 3:000 PM. I came back at 2:45 PM and told rooms were still not ready. I asked to use the restroom around the corner and was gone a minute and when I return, I see the black front desk agent checking in a black man before 3:00 PM.  Obvious I was discriminated and lied too. After the black man checked in, the front desk agent left avoiding checking me in as he saw I took a photo of him discriminating against me. The guest services manager uses this website as a sounding board with baseless facts and an unprofessional weak excuse saying the other person would pre-block their reservation the night before.  Ignore any response as this hotel are embarrassed and angry they were busted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r466416347-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466416347</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roaches no hot water and bad managers </t>
+  </si>
+  <si>
+    <t>If you want roaches, no hot water to take showers with and managers that don't care this is the place. They apologized for not calling me back and said we will block off the room Monday to fumigate but you have to stay in the room till Monday this is the place for you. Complete dirt hole with new owners. They don't have hot water,bugs no customer service. Roaches crawling all over and they laughed. Spend $10 more and go some where else. Ice machines don't work, hookers everywhere and cars getting broken into because they didn't want to pay for security on week days. Complete dump! Save your money and go so where else. I spend 30 weeks a year on business in hotels. This is a 1.5 star at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>If you want roaches, no hot water to take showers with and managers that don't care this is the place. They apologized for not calling me back and said we will block off the room Monday to fumigate but you have to stay in the room till Monday this is the place for you. Complete dirt hole with new owners. They don't have hot water,bugs no customer service. Roaches crawling all over and they laughed. Spend $10 more and go some where else. Ice machines don't work, hookers everywhere and cars getting broken into because they didn't want to pay for security on week days. Complete dump! Save your money and go so where else. I spend 30 weeks a year on business in hotels. This is a 1.5 star at best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r455011946-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455011946</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Overall the holiday inn was a good place to stay. The rooms were clean and comfortable. The property was well kept and the staff were friendly. I stay in a lot of holiday inns for work, and they all have a quirk or two. The only thing with this property was the shower was hard to figure out. You have to pull the whole shows knob out in order to turn on the water. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Overall the holiday inn was a good place to stay. The rooms were clean and comfortable. The property was well kept and the staff were friendly. I stay in a lot of holiday inns for work, and they all have a quirk or two. The only thing with this property was the shower was hard to figure out. You have to pull the whole shows knob out in order to turn on the water. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r449973114-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449973114</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>***1/2</t>
+  </si>
+  <si>
+    <t>Clean friendly with free wifi, free coffee maker w/coffee and free business center in lobby... Room service and for a fee daily u can add micro/mini fridge to room.... Great location and discount price if u shop for it online...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Clean friendly with free wifi, free coffee maker w/coffee and free business center in lobby... Room service and for a fee daily u can add micro/mini fridge to room.... Great location and discount price if u shop for it online...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r447611190-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447611190</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Not Here Again</t>
+  </si>
+  <si>
+    <t>Although this place was brand new, this is one Holiday Inn we'll never visit again. After trying for some time to gain access to the internet, an advertised service, I took my laptop to the kiosk to see if there was some quirk I didn't know. (I've used this laptop in numerous states and four countries.) One clerk was not interested. The second did not know what he was doing. And the third said other guests had complained so she'd tell maintenance to reboot the system. the next day my wife turned on the bath water and nothing at all came out. I called room service five times. Twice I was disconnected. The other three times the phone just rang. I went to the kiosk and asked for corporate's contact information and was refused. But if I would give him my room number, a manager would call me. I did. But I got no call.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although this place was brand new, this is one Holiday Inn we'll never visit again. After trying for some time to gain access to the internet, an advertised service, I took my laptop to the kiosk to see if there was some quirk I didn't know. (I've used this laptop in numerous states and four countries.) One clerk was not interested. The second did not know what he was doing. And the third said other guests had complained so she'd tell maintenance to reboot the system. the next day my wife turned on the bath water and nothing at all came out. I called room service five times. Twice I was disconnected. The other three times the phone just rang. I went to the kiosk and asked for corporate's contact information and was refused. But if I would give him my room number, a manager would call me. I did. But I got no call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r403285042-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403285042</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>If you're around SugarLand/Stafford, it's a good choice</t>
+  </si>
+  <si>
+    <t>The hotel is clean.  There is a restaurant in the hotel (no free breakfast).  The food's fine at normal hotel prices.  Flat screen TVs in room is a little bigger than I'm used to in hotels (its bigger than 32").  Free WIFI, elevators aren't too noisy although my room is far enough away I wouldn't hear it if it was.  The desk is friendly and helpful.  I've stayed here before and I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is clean.  There is a restaurant in the hotel (no free breakfast).  The food's fine at normal hotel prices.  Flat screen TVs in room is a little bigger than I'm used to in hotels (its bigger than 32").  Free WIFI, elevators aren't too noisy although my room is far enough away I wouldn't hear it if it was.  The desk is friendly and helpful.  I've stayed here before and I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r401086619-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401086619</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Excelent place to stay</t>
+  </si>
+  <si>
+    <t>My wife, my two childrens and I visit our family on Houston. After be dissapointed fron previous stayed hotel we decide to move on our last night on thus holiday inn. Looks Recently updated. Excellent front desk attention. Very clean rooms.I recomend to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>My wife, my two childrens and I visit our family on Houston. After be dissapointed fron previous stayed hotel we decide to move on our last night on thus holiday inn. Looks Recently updated. Excellent front desk attention. Very clean rooms.I recomend to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r390565545-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390565545</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Yucky smell!</t>
+  </si>
+  <si>
+    <t>Our A/C at home went out so we checked into this hotel hoping for a good night's sleep. The first room we were shown to was on the second floor. The minute we opened the door, we were hit with the horrible smell of strong mold. We went right back to the front desk and asked for another room. The representative apologized and gave us another room. While I was waiting for my key, the woman behind me told me she was also asking for another room. The second room had no odor and was clean. However, the air conditioner was very loud and when we woke up the next morning, there was no hot water. The morning front desk clerk apologized. She didn't say if it was all over the hotel or not. And I felt sorry for her. It's not her fault this place isn't living up to what one expects from a full Holiday Inn. Had it been an Express, maybe I wouldn't have been so surprised. I won't recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Our A/C at home went out so we checked into this hotel hoping for a good night's sleep. The first room we were shown to was on the second floor. The minute we opened the door, we were hit with the horrible smell of strong mold. We went right back to the front desk and asked for another room. The representative apologized and gave us another room. While I was waiting for my key, the woman behind me told me she was also asking for another room. The second room had no odor and was clean. However, the air conditioner was very loud and when we woke up the next morning, there was no hot water. The morning front desk clerk apologized. She didn't say if it was all over the hotel or not. And I felt sorry for her. It's not her fault this place isn't living up to what one expects from a full Holiday Inn. Had it been an Express, maybe I wouldn't have been so surprised. I won't recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r378261842-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378261842</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Horrible Stay Great Service</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was broken, main thing is the elevator myself and a couple other people were stuck on the elevator for 30 minutes, no hot water, only one person working at the desk I felt so sorry for the young lady Nicky because she was taking all the heat for something that is clearly out of her control. She handled herself very professional considering all the chaos that was going on around her, I tilt my hat to her because I would've walked right on out and quit. Management needs to be ashamed of themselves. I tell you one thing I will NEVER RETURN TO THAT DUMP!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Everything at this hotel was broken, main thing is the elevator myself and a couple other people were stuck on the elevator for 30 minutes, no hot water, only one person working at the desk I felt so sorry for the young lady Nicky because she was taking all the heat for something that is clearly out of her control. She handled herself very professional considering all the chaos that was going on around her, I tilt my hat to her because I would've walked right on out and quit. Management needs to be ashamed of themselves. I tell you one thing I will NEVER RETURN TO THAT DUMP!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r378010136-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378010136</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Worst stay ever in life of living...</t>
+  </si>
+  <si>
+    <t>They only had one elevator working when I checked in. About an hour later, I hear the alarm going off from one of the elevators. There were children stuck inside for 20+ minutes and nobody ever came to check or help. There was no hot water the entire stay. So imagine taking a cold shower and then having to walk down 6 flights of stairs with all of your heavy luggage. There were no managers to speak with on duty for the entire weekend. Horrible Horrible experience. Dont waste your money here.MoreShow less</t>
+  </si>
+  <si>
+    <t>They only had one elevator working when I checked in. About an hour later, I hear the alarm going off from one of the elevators. There were children stuck inside for 20+ minutes and nobody ever came to check or help. There was no hot water the entire stay. So imagine taking a cold shower and then having to walk down 6 flights of stairs with all of your heavy luggage. There were no managers to speak with on duty for the entire weekend. Horrible Horrible experience. Dont waste your money here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r372357366-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372357366</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Staff not friendly</t>
+  </si>
+  <si>
+    <t>I was looking forward to taking this trip since I was in town to see the Beyoncé concert and the staff was one of the main reasons for this review.When we arrived the front desk agent Nikki was outside on a smoke break which is something I did not think should be done in the front of the hotel. Checking in she did not smile or talk really...I had to ask what the Wi-Fi was when as a rewards member it should be automatically given to me.Throughout my stay the staff at the front desk seemed to not really care about making the guest feel special at all. They were either staring at the computer or reading books. No greeting from anyone that works there.Also upon checking out the elevator broke down and without proper notice from the staff we had to find out they were broken when we had all our luggage to go and had no choice but to walk down 6 flights of stairs.The only thing I enjoyed was my room and bed …..I just wished my experience here would have been better...but I will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>I was looking forward to taking this trip since I was in town to see the Beyoncé concert and the staff was one of the main reasons for this review.When we arrived the front desk agent Nikki was outside on a smoke break which is something I did not think should be done in the front of the hotel. Checking in she did not smile or talk really...I had to ask what the Wi-Fi was when as a rewards member it should be automatically given to me.Throughout my stay the staff at the front desk seemed to not really care about making the guest feel special at all. They were either staring at the computer or reading books. No greeting from anyone that works there.Also upon checking out the elevator broke down and without proper notice from the staff we had to find out they were broken when we had all our luggage to go and had no choice but to walk down 6 flights of stairs.The only thing I enjoyed was my room and bed …..I just wished my experience here would have been better...but I will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r356385357-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356385357</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Amazing visit Jose is the best</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here it was a very comfortable hotel and Jose Flores made it very welcoming for me. Very nice guy. This is the place to stay. I would recommend this hotel for anybody coming to Houston or for any circumstances the room was very comfortable the bed was comfortable nice and quiet. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here it was a very comfortable hotel and Jose Flores made it very welcoming for me. Very nice guy. This is the place to stay. I would recommend this hotel for anybody coming to Houston or for any circumstances the room was very comfortable the bed was comfortable nice and quiet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r356144665-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356144665</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Great room, very clean, staff was very helpful! Did not have time on my short trip to enjoy all of the amenities. Though the restaurant was very nice. The pools looked very clean, and easily accessible. The night manager Jose Flores was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great room, very clean, staff was very helpful! Did not have time on my short trip to enjoy all of the amenities. Though the restaurant was very nice. The pools looked very clean, and easily accessible. The night manager Jose Flores was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r348079837-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348079837</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>About Jose Flores...</t>
+  </si>
+  <si>
+    <t>My visit went well here. What highlighted my visit the most was the friendly service I received here. The front desk clerk, Jose Flores was beyond helpful and did his best to make my experience here the best. I would come again just to experience his excellent customer service.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r346563954-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346563954</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed a restful stay.</t>
+  </si>
+  <si>
+    <t>We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you...We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you have a reason to be in the area then this would be a good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you...We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you have a reason to be in the area then this would be a good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r346497266-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346497266</t>
+  </si>
+  <si>
+    <t>Love is all you need... And a place to lay your head...</t>
+  </si>
+  <si>
+    <t>Totes had a tubular time here at the Holiday Inn! I've been here for a week and I'm staying for another week. I'm very comfortable here and I plan to return apon on my next visit to Houston. Special Thanks to Jose Flores , the night manager, for his late night words of wisdom. And thanks to the whole staff for creating and all around excellent stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Totes had a tubular time here at the Holiday Inn! I've been here for a week and I'm staying for another week. I'm very comfortable here and I plan to return apon on my next visit to Houston. Special Thanks to Jose Flores , the night manager, for his late night words of wisdom. And thanks to the whole staff for creating and all around excellent stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r344141229-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344141229</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Great Staff and comfortable beds</t>
+  </si>
+  <si>
+    <t>I had a great stay at the Holiday Inn on my recent visit.  The bed was really comfortable and it's obvious housekeeping pays close attention to details. The staff was really helpful and friendly. Nikki the lady that works at the front desk was well versed about the area. She guided me through places to eat and directions to get around.  The lady that works on the floor kim was really friendly and offered to help with  my luggage. I will definitely be returning to this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>I had a great stay at the Holiday Inn on my recent visit.  The bed was really comfortable and it's obvious housekeeping pays close attention to details. The staff was really helpful and friendly. Nikki the lady that works at the front desk was well versed about the area. She guided me through places to eat and directions to get around.  The lady that works on the floor kim was really friendly and offered to help with  my luggage. I will definitely be returning to this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r331932837-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331932837</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Great staff, good hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for about two weeks. What made my stay really pleasant, was the extremely friendly staff! Rooms are spacious, gym is small but enough. Not a very new hotel, but I'd definitely recommend it! Internet was also one of the fastest I've experienced in a hotel. Big plus for business stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for about two weeks. What made my stay really pleasant, was the extremely friendly staff! Rooms are spacious, gym is small but enough. Not a very new hotel, but I'd definitely recommend it! Internet was also one of the fastest I've experienced in a hotel. Big plus for business stays. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r327110479-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327110479</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>exceptional value/great service</t>
+  </si>
+  <si>
+    <t>This was my third stay and each time the experience has been better than the last time!The hotel has been completely renovated and the management and staff go out of their way to meet and exceed your needs and expectations! indoor swimming pool and spa are great.The decor and wall art pieces are very eye pleasing.Restaurant has limited menu.But food was great.Try the Salmon with red mashed potato!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>This was my third stay and each time the experience has been better than the last time!The hotel has been completely renovated and the management and staff go out of their way to meet and exceed your needs and expectations! indoor swimming pool and spa are great.The decor and wall art pieces are very eye pleasing.Restaurant has limited menu.But food was great.Try the Salmon with red mashed potato!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r326170606-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326170606</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Friendly staff with clean hotel rooms. Breakfast was good. Front Desk staff was knowledgeable. Location is nice and safe. Room rate is acceptable because of convenient location. Little issue at check out but Manager Joelhey resolved the issue later. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff with clean hotel rooms. Breakfast was good. Front Desk staff was knowledgeable. Location is nice and safe. Room rate is acceptable because of convenient location. Little issue at check out but Manager Joelhey resolved the issue later. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r320065422-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320065422</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Not what i expected from a holiday inn</t>
+  </si>
+  <si>
+    <t>This is not what I expected from a holiday inn, the breakfast was not so good, ac was making noise, no hot water in the shower.Otherwise the services were not so bad the staff were friendly.Clean and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>This is not what I expected from a holiday inn, the breakfast was not so good, ac was making noise, no hot water in the shower.Otherwise the services were not so bad the staff were friendly.Clean and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r311391193-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311391193</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Nice Location to Host a Meeting</t>
+  </si>
+  <si>
+    <t>I traveled to Houston to take part in a 5 day workshop being held at the Holiday Inn located on Southwest Freeway.  The property is in a bit of an odd location, however the sleeping rooms and space available for meetings of all sizes is notable.Beds are comfortable and accommodations are neat and clean.  There are meeting rooms of various sizes and the staff is personable and professional.  There is an outside pool, business center and small sundry shop.Avoid the restaurant within the hotel.  Not very organized and service is a bit challenged.  (I believe that the restaurant is managed and operated by an independent contractor).Walking to an outside restaurant is for the young of heart.  I would recommend taking a cab (just a short 6-7 minute ride.Dr. Marc, PS 63:7MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>I traveled to Houston to take part in a 5 day workshop being held at the Holiday Inn located on Southwest Freeway.  The property is in a bit of an odd location, however the sleeping rooms and space available for meetings of all sizes is notable.Beds are comfortable and accommodations are neat and clean.  There are meeting rooms of various sizes and the staff is personable and professional.  There is an outside pool, business center and small sundry shop.Avoid the restaurant within the hotel.  Not very organized and service is a bit challenged.  (I believe that the restaurant is managed and operated by an independent contractor).Walking to an outside restaurant is for the young of heart.  I would recommend taking a cab (just a short 6-7 minute ride.Dr. Marc, PS 63:7More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r298431137-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298431137</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent service and warm hospitality.</t>
+  </si>
+  <si>
+    <t>Newly remodeled, and new young and energetic staff providing excellent service and great value. We had used the hotel for a wedding event and all the guests were extremely happy with the accommodation provided and everyone from the owner and manager to the check-in staff were very cooperative.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Newly remodeled, and new young and energetic staff providing excellent service and great value. We had used the hotel for a wedding event and all the guests were extremely happy with the accommodation provided and everyone from the owner and manager to the check-in staff were very cooperative.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r293936316-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293936316</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>New facility needing just a few tweaks</t>
+  </si>
+  <si>
+    <t>I stayed in this facility two nights. The clerk stated they had only been open two weeks. it is a very nice facility, everything is new and nice. The first night the WiFi didn't work and when I called the help number listed on a card in the room, the service stated they did not have any Holiday Inn stores in their list of clients. When i spoke with the front desk clerk he did offer to look at my device and see what he could do. It wasn't a big issue for me so I left it alone. The second night it worked perfectly. On a different note the soap dish in the shower was too close to the shower head end and was in the way while showering. I did enjoy the actual shower head as it was adjustable. Over all a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this facility two nights. The clerk stated they had only been open two weeks. it is a very nice facility, everything is new and nice. The first night the WiFi didn't work and when I called the help number listed on a card in the room, the service stated they did not have any Holiday Inn stores in their list of clients. When i spoke with the front desk clerk he did offer to look at my device and see what he could do. It wasn't a big issue for me so I left it alone. The second night it worked perfectly. On a different note the soap dish in the shower was too close to the shower head end and was in the way while showering. I did enjoy the actual shower head as it was adjustable. Over all a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r245918165-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245918165</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Convenient quiet and comfortable stay</t>
+  </si>
+  <si>
+    <t>Stayed here for oe night. It is just off the freeway and I imagined it might have traffic noise but it was very quiet.Friendly and efficent staff. My room key was ready on arrival. Took only a minute to check in and out.Room was average size. Comfortable bed and all the amenities you need. Lots of nice white towels.Decent breakfast served until 9.30 to set you up0 for the day.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1381,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1413,2300 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>242</v>
+      </c>
+      <c r="X27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_357.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_357.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r594556546-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98981</t>
+  </si>
+  <si>
+    <t>594556546</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn Houston SW - sugar land</t>
+  </si>
+  <si>
+    <t>The place is located in a very noisy area, at the time of check in, a group of local were hanging out in the lobby watching Basketball, the people were not even guest. Going up the elevator we had to share a ride with a drunk person, me and my daughter were so disappointed and scared of staying there check out at 8 am. When we called Orbitz at the time of checking and explained the situation on a long weekend at 10 pm they suggest leave the hotel to where I do not know. The furniture in the lobby are very dirty a poor management and hotel over all.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The place is located in a very noisy area, at the time of check in, a group of local were hanging out in the lobby watching Basketball, the people were not even guest. Going up the elevator we had to share a ride with a drunk person, me and my daughter were so disappointed and scared of staying there check out at 8 am. When we called Orbitz at the time of checking and explained the situation on a long weekend at 10 pm they suggest leave the hotel to where I do not know. The furniture in the lobby are very dirty a poor management and hotel over all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r594074471-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594074471</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn</t>
+  </si>
+  <si>
+    <t>Was in Sugarland for a weekend of business. Hotel was mostly clean and street view from hotel room was appealing.I like the fact that the kitchen served shell eggs for breakfast and not boxed or powdered.Very open, spacious bar and lounge to sit at hotel and eat.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r589345344-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>98981</t>
-  </si>
-  <si>
     <t>589345344</t>
   </si>
   <si>
@@ -174,9 +219,6 @@
     <t xml:space="preserve">Got our room, one bed was not made completely, there was a used towel on the sink, and the room smelled like mildew. No mini fridge or microwave. I would not recommend, but my daughter got it for 60 a night, so I guess that's was you get. Though the price for non members on Hotels.com was 97 a night. You should not pay that much. Wasn't worth it, you can get a Hilton for that price. </t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -195,9 +237,6 @@
     <t>This hotel has COCKROACHES.  I was still on pacific time when I discovered them crawling around my wallet, glasses, and keys that I had left on the TV stand at 1 am.  Disgusting!!  I quickly went through my things, packed up, and went to check out.  The employee at the front desk was nice at first wondering why I was leaving at 1 am, but when I told him the reasoning behind my early checkout his demeanor changed.  He became rude and refused to check me out.  His dishonest excuse was that their computer system did not allow customers who booked online to check out.  I sat in the hotel parking lot, in my rental car, looking for another hotel.  As I did not want to be charged for staying at a hotel that I did not actually occupy, I tried to contact the hotel manager for a refund afterwards.  I was not able to get a hold of the hotel manager and his voicemail box was always full.  Thank you Orbitz for getting me a refund.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This hotel has COCKROACHES.  I was still on pacific time when I discovered them crawling around my wallet, glasses, and keys that I had left on the TV stand at 1 am.  Disgusting!!  I quickly went through my things, packed up, and went to check out.  The employee at the front desk was nice at first wondering why I was leaving at 1 am, but when I told him the reasoning behind my early checkout his demeanor changed.  He became rude and refused to check me out.  His dishonest excuse was that their computer system did not allow customers who booked online to check out.  I sat in the hotel parking lot, in my rental car, looking for another hotel.  As I did not want to be charged for staying at a hotel that I did not actually occupy, I tried to contact the hotel manager for a refund afterwards.  I was not able to get a hold of the hotel manager and his voicemail box was always full.  Thank you Orbitz for getting me a refund.More</t>
   </si>
   <si>
@@ -216,12 +255,54 @@
     <t>I particularly thanks to the guy from the desk that gave us a different room less noisy from the air con. We only were very disappoint for the location of the hotel and the ppl that was coming from outside, I wouldn’t suggest this hotel for couple with kids,  there are criminals and prostitution activities in and out the hotel, we found to many rubbish and mess due to the weekend events</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r582172114-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582172114</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>I have two day reservation in this hotel but I end up staying for just one night. It’s enough to keep me stay away from it. I saw a roach in the bathroom while I was peeing. So I killed it. But having roaches inside the sheets while you’re lying???? That was too much for me. The nice lady at the reception said she will reimburse my points for the next day I didn’t stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r566773799-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566773799</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>OMG !</t>
+  </si>
+  <si>
+    <t>I have stayed in hotels in many countries and of different star rating, but this is one of the worst.  Room certainly needs cleaning as I found hair everywhere!  They were on the tissue box, coffee tray, bed....Day 1, there were no towels in the bath room and on day 2 there were towels but housekeeping also left dirty laundry in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in hotels in many countries and of different star rating, but this is one of the worst.  Room certainly needs cleaning as I found hair everywhere!  They were on the tissue box, coffee tray, bed....Day 1, there were no towels in the bath room and on day 2 there were towels but housekeeping also left dirty laundry in my room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r554186974-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -240,9 +321,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 1, 2018</t>
   </si>
   <si>
@@ -294,6 +372,61 @@
     <t>Holiday Inn is usually my go to. Because of the massive flooding caused by hurricane Harvey I think they are doing a fine job. So I won't criticize the effort. I can say that the front office staff is a bit less than the normal professionals I expect. The bar/restaurant gives me a sour stomach every time I attempt to patronize it. Hopefully the recent events are the reason I'm disappointed. Keep trying! I know you will recover!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r522445522-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522445522</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Nightmare stay</t>
+  </si>
+  <si>
+    <t>We ended up stranded at this hotel due to hurricane Harvey and the negligence of the hotel staff.  Flood waters came up suddenly overnight while we were sleeping and the hotel only alerted guests on the first floor.  We woke to a very flooded hotel and stranded due to water in the parking lot and our car.  Hotel staff and owner gave us very little to eat and drink and refused to get any food from the restaurant to feed guests.  The hotel then refused my negative review and asked me to change it and resubmit.  Very unconcerned and uncaring!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>We ended up stranded at this hotel due to hurricane Harvey and the negligence of the hotel staff.  Flood waters came up suddenly overnight while we were sleeping and the hotel only alerted guests on the first floor.  We woke to a very flooded hotel and stranded due to water in the parking lot and our car.  Hotel staff and owner gave us very little to eat and drink and refused to get any food from the restaurant to feed guests.  The hotel then refused my negative review and asked me to change it and resubmit.  Very unconcerned and uncaring!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r510782685-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510782685</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>DO YOURSELF A FAVOR AND DO NOT STAY AT THIS HOTEL!!!</t>
+  </si>
+  <si>
+    <t>I booked a room at this Holiday Inn through Expedia.com hours before arriving at the hotel late one Saturday night.  Upon arrival at the hotel, I noticed the male attendant arguing with another patron; never a good sign.  Thereafter, he got into an argument with the patron immediately in front of me as well.  Once again, never a good sign.
+When it came my turn to check-in, I advised the male attendant of my Expedia.com booking.  The male attendant advised me that my reservation was not in the system, however, I could rebook the reservation IF I paid the hotel in cash only.  
+Flabbergasted, I promptly contacted Expedia.com to determine what was going on.  Expedia.com's customer representative advised me that my credit card was charged by Expedia.com.  After subtracting their portion of the reservation fee, the remaining balance was forwarded to the hotel.  As a result, Expedia.com showed a room booked under my name on their system and in Holiday Inn's system.  I advised the male attendant of this and asked him if he was being honest with me about the lack of a reservation in the system.  Thereafter, the male attendant became belligerent and accused me of accusing him of lying.  He then advised me that he could refuse my service as the owner of the business.  He once again told me that the reservation was not in the system, but could be booked with him in cash only....I booked a room at this Holiday Inn through Expedia.com hours before arriving at the hotel late one Saturday night.  Upon arrival at the hotel, I noticed the male attendant arguing with another patron; never a good sign.  Thereafter, he got into an argument with the patron immediately in front of me as well.  Once again, never a good sign.When it came my turn to check-in, I advised the male attendant of my Expedia.com booking.  The male attendant advised me that my reservation was not in the system, however, I could rebook the reservation IF I paid the hotel in cash only.  Flabbergasted, I promptly contacted Expedia.com to determine what was going on.  Expedia.com's customer representative advised me that my credit card was charged by Expedia.com.  After subtracting their portion of the reservation fee, the remaining balance was forwarded to the hotel.  As a result, Expedia.com showed a room booked under my name on their system and in Holiday Inn's system.  I advised the male attendant of this and asked him if he was being honest with me about the lack of a reservation in the system.  Thereafter, the male attendant became belligerent and accused me of accusing him of lying.  He then advised me that he could refuse my service as the owner of the business.  He once again told me that the reservation was not in the system, but could be booked with him in cash only.  BUYER BEWARE!  Although I have no evidence of this, I assume that this hotel likes to make extra money through the shady underhanded practices I described herein.  Furthermore, as a word of advice to the management of this establishment, you should train your staff to treat your customers with decency and respect, or in the alternative, fire such staff members that are belligerent with customers.  As customers, we have the ability to choose where we spend our money.  If you do not treat your customers with curtesy and respect, there are numerous hotels in the surrounding area that will gladly take the business.  Inevitably this will either hurt your bottom line or cause you to go out of business.  Something I assume management would not want.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>I booked a room at this Holiday Inn through Expedia.com hours before arriving at the hotel late one Saturday night.  Upon arrival at the hotel, I noticed the male attendant arguing with another patron; never a good sign.  Thereafter, he got into an argument with the patron immediately in front of me as well.  Once again, never a good sign.
+When it came my turn to check-in, I advised the male attendant of my Expedia.com booking.  The male attendant advised me that my reservation was not in the system, however, I could rebook the reservation IF I paid the hotel in cash only.  
+Flabbergasted, I promptly contacted Expedia.com to determine what was going on.  Expedia.com's customer representative advised me that my credit card was charged by Expedia.com.  After subtracting their portion of the reservation fee, the remaining balance was forwarded to the hotel.  As a result, Expedia.com showed a room booked under my name on their system and in Holiday Inn's system.  I advised the male attendant of this and asked him if he was being honest with me about the lack of a reservation in the system.  Thereafter, the male attendant became belligerent and accused me of accusing him of lying.  He then advised me that he could refuse my service as the owner of the business.  He once again told me that the reservation was not in the system, but could be booked with him in cash only....I booked a room at this Holiday Inn through Expedia.com hours before arriving at the hotel late one Saturday night.  Upon arrival at the hotel, I noticed the male attendant arguing with another patron; never a good sign.  Thereafter, he got into an argument with the patron immediately in front of me as well.  Once again, never a good sign.When it came my turn to check-in, I advised the male attendant of my Expedia.com booking.  The male attendant advised me that my reservation was not in the system, however, I could rebook the reservation IF I paid the hotel in cash only.  Flabbergasted, I promptly contacted Expedia.com to determine what was going on.  Expedia.com's customer representative advised me that my credit card was charged by Expedia.com.  After subtracting their portion of the reservation fee, the remaining balance was forwarded to the hotel.  As a result, Expedia.com showed a room booked under my name on their system and in Holiday Inn's system.  I advised the male attendant of this and asked him if he was being honest with me about the lack of a reservation in the system.  Thereafter, the male attendant became belligerent and accused me of accusing him of lying.  He then advised me that he could refuse my service as the owner of the business.  He once again told me that the reservation was not in the system, but could be booked with him in cash only.  BUYER BEWARE!  Although I have no evidence of this, I assume that this hotel likes to make extra money through the shady underhanded practices I described herein.  Furthermore, as a word of advice to the management of this establishment, you should train your staff to treat your customers with decency and respect, or in the alternative, fire such staff members that are belligerent with customers.  As customers, we have the ability to choose where we spend our money.  If you do not treat your customers with curtesy and respect, there are numerous hotels in the surrounding area that will gladly take the business.  Inevitably this will either hurt your bottom line or cause you to go out of business.  Something I assume management would not want.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r500398430-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,6 +502,51 @@
     <t>It was my second time at this hotel in 2 months. The hotel property is good. The safety, security, ambiance is good. Rooms are nice and clean. The surrounding areas are safe and the parking lot always has an on duty security guard at night.The hotel staff is courteous and polite. However, the same can't be said about the restaurant staff. The hotel needs to work on their communication of breakfast policies to guests. We paid for 3 nights and could only get breakfast once. While I believe the hotel staff were apologetic about it, but I believe they've leased out the restaurant to a third party and thus couldn't intervene much (that's what the on duty front desk staff told us).I would certainly stay again and recommend this hotel minus the breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r471501160-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471501160</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>COMFORTABLE STAY</t>
+  </si>
+  <si>
+    <t>We were there for US cricket team trials, they look after us very well, I must recommend this hotel yourself and group, nice breakfast and well versed staff. Location is next to major highway, restaurants are nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Joelhey B, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>We were there for US cricket team trials, they look after us very well, I must recommend this hotel yourself and group, nice breakfast and well versed staff. Location is next to major highway, restaurants are nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r471495642-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471495642</t>
+  </si>
+  <si>
+    <t>Good room for value!</t>
+  </si>
+  <si>
+    <t>Overall good hotel and location for our specifics needs!Just a couple of issues , water pressure is a big problem, and entrance from highway service road not very practical or safe!Beside theses , a few sign of wear and tear in bathroom and carpet , see pictures!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Overall good hotel and location for our specifics needs!Just a couple of issues , water pressure is a big problem, and entrance from highway service road not very practical or safe!Beside theses , a few sign of wear and tear in bathroom and carpet , see pictures!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r468059440-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,9 +562,6 @@
     <t>The price is the main reason we chose this specific Holiday Inn. We booked early (5 days, 4 nights) to save on breakfast. Every morning was an ordeal because the guy who checked us in did not give us vouchers for breakfast &amp; that caused problems with the waitress. Selection was minimal &amp; our orders were wrong 2 mornings. The parking lot needs repair &amp; not all outside doors can be entered while others are not even locked. The lobby &amp; check in are kept nicely. The rooms are small and are not updated. The indoor pool was freezing &amp; the hot tub did not work. The hot tub was filthy. Their solution was to put yellow caution tape around it. The first full day, there was no housekeeping visit to our room &amp; I had to call down for more towels. They are pretty stingy with those and we had to share more than once.  The room keys did not always work. Also, there were zip ties found in the room... this seems odd to me.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Joelhey B, Guest Relations Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 20, 2017</t>
   </si>
   <si>
@@ -444,6 +619,54 @@
     <t>If you want roaches, no hot water to take showers with and managers that don't care this is the place. They apologized for not calling me back and said we will block off the room Monday to fumigate but you have to stay in the room till Monday this is the place for you. Complete dirt hole with new owners. They don't have hot water,bugs no customer service. Roaches crawling all over and they laughed. Spend $10 more and go some where else. Ice machines don't work, hookers everywhere and cars getting broken into because they didn't want to pay for security on week days. Complete dump! Save your money and go so where else. I spend 30 weeks a year on business in hotels. This is a 1.5 star at best.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r464906137-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464906137</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but....</t>
+  </si>
+  <si>
+    <t>My boys and I came to Houston to visit family and booked a room thru trip advisor. The room i booked was a double queen seeing as there were 4 of us in my group. When we got there the front desk lady said there weren't any double queen beds left and would a king be ok? Absolutely not seeing ad there were 4 of us. She quickly found us a double queen room. After we got settled into our room we went downstairs to the bar and grill for dinner. The lady that works behind the bar was extremely rude. When my boys and I went to sit at the bar to order our food to go the lady quickly said I couldn't sit at the bar with my kids. Last time I checked it was ok as long as I was there with them. Later that night after we went to sleep the fire alarms went off because of someone smoking in their room. Needless to say we all woke up because of the fire alarms. The next morning we went down for breakfast and the kitchen staff seemed to be overwhelmed from trying to keep up with the demand of the food. The bacon wasn't cooked. My son ate some not realizing that it was way under cooked. Because of that he was very sick the majority of the day and most of the night. That night...My boys and I came to Houston to visit family and booked a room thru trip advisor. The room i booked was a double queen seeing as there were 4 of us in my group. When we got there the front desk lady said there weren't any double queen beds left and would a king be ok? Absolutely not seeing ad there were 4 of us. She quickly found us a double queen room. After we got settled into our room we went downstairs to the bar and grill for dinner. The lady that works behind the bar was extremely rude. When my boys and I went to sit at the bar to order our food to go the lady quickly said I couldn't sit at the bar with my kids. Last time I checked it was ok as long as I was there with them. Later that night after we went to sleep the fire alarms went off because of someone smoking in their room. Needless to say we all woke up because of the fire alarms. The next morning we went down for breakfast and the kitchen staff seemed to be overwhelmed from trying to keep up with the demand of the food. The bacon wasn't cooked. My son ate some not realizing that it was way under cooked. Because of that he was very sick the majority of the day and most of the night. That night around 1 in the morning the fire alarms went off yet again. It stayed on for at least 20 minutes and again it was from someone smoking in their room. Now i have stayed in a lot of hotels and i know there is a system that can detect cigarette smoking without setting the entire fire alarm off! The last morning we were there we came down to breakfast and yet again the kitchen staff were flustered with trying to keep up with the demand. For what they were serving i don't agree with paying 10 dollars for the breakfast. I could see paying maybe 5 dollars. 10 was way too much. Now for the good. The rooms were nice and clean. The beds were pretty comfortable. The indoor pool was clean and the gym served it's purpose. Would i stay here again? Probably not. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>My boys and I came to Houston to visit family and booked a room thru trip advisor. The room i booked was a double queen seeing as there were 4 of us in my group. When we got there the front desk lady said there weren't any double queen beds left and would a king be ok? Absolutely not seeing ad there were 4 of us. She quickly found us a double queen room. After we got settled into our room we went downstairs to the bar and grill for dinner. The lady that works behind the bar was extremely rude. When my boys and I went to sit at the bar to order our food to go the lady quickly said I couldn't sit at the bar with my kids. Last time I checked it was ok as long as I was there with them. Later that night after we went to sleep the fire alarms went off because of someone smoking in their room. Needless to say we all woke up because of the fire alarms. The next morning we went down for breakfast and the kitchen staff seemed to be overwhelmed from trying to keep up with the demand of the food. The bacon wasn't cooked. My son ate some not realizing that it was way under cooked. Because of that he was very sick the majority of the day and most of the night. That night...My boys and I came to Houston to visit family and booked a room thru trip advisor. The room i booked was a double queen seeing as there were 4 of us in my group. When we got there the front desk lady said there weren't any double queen beds left and would a king be ok? Absolutely not seeing ad there were 4 of us. She quickly found us a double queen room. After we got settled into our room we went downstairs to the bar and grill for dinner. The lady that works behind the bar was extremely rude. When my boys and I went to sit at the bar to order our food to go the lady quickly said I couldn't sit at the bar with my kids. Last time I checked it was ok as long as I was there with them. Later that night after we went to sleep the fire alarms went off because of someone smoking in their room. Needless to say we all woke up because of the fire alarms. The next morning we went down for breakfast and the kitchen staff seemed to be overwhelmed from trying to keep up with the demand of the food. The bacon wasn't cooked. My son ate some not realizing that it was way under cooked. Because of that he was very sick the majority of the day and most of the night. That night around 1 in the morning the fire alarms went off yet again. It stayed on for at least 20 minutes and again it was from someone smoking in their room. Now i have stayed in a lot of hotels and i know there is a system that can detect cigarette smoking without setting the entire fire alarm off! The last morning we were there we came down to breakfast and yet again the kitchen staff were flustered with trying to keep up with the demand. For what they were serving i don't agree with paying 10 dollars for the breakfast. I could see paying maybe 5 dollars. 10 was way too much. Now for the good. The rooms were nice and clean. The beds were pretty comfortable. The indoor pool was clean and the gym served it's purpose. Would i stay here again? Probably not. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r458806484-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458806484</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>customer service  stellar</t>
+  </si>
+  <si>
+    <t>Joeley, Dominque ,of course Alexander and the Maintenance Team also asked if I was comfortable  and if I wasnt just give them a call , Outstanding,  the staff went above and beyond to make sure the Charity Family was comfortable , Housekeeping made sure my room was cleaned and stocked daily Thank dor taking good care of us , I will book this hotel everytime im in Houston and great price .MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Joeley, Dominque ,of course Alexander and the Maintenance Team also asked if I was comfortable  and if I wasnt just give them a call , Outstanding,  the staff went above and beyond to make sure the Charity Family was comfortable , Housekeeping made sure my room was cleaned and stocked daily Thank dor taking good care of us , I will book this hotel everytime im in Houston and great price .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r455011946-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -489,9 +712,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded January 17, 2017</t>
   </si>
   <si>
@@ -519,6 +739,57 @@
     <t>Although this place was brand new, this is one Holiday Inn we'll never visit again. After trying for some time to gain access to the internet, an advertised service, I took my laptop to the kiosk to see if there was some quirk I didn't know. (I've used this laptop in numerous states and four countries.) One clerk was not interested. The second did not know what he was doing. And the third said other guests had complained so she'd tell maintenance to reboot the system. the next day my wife turned on the bath water and nothing at all came out. I called room service five times. Twice I was disconnected. The other three times the phone just rang. I went to the kiosk and asked for corporate's contact information and was refused. But if I would give him my room number, a manager would call me. I did. But I got no call.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r441819300-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441819300</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay </t>
+  </si>
+  <si>
+    <t>The hotel is nice. Clean rooms. Staff is nice and courteous. When the faucet started leaking, they quickly came and fixed it. Convenient location.  My only complaints are that they don't have free breakfast, so you have to patronize them by buying from their restaurant; and no refrigerator or microwave. Another thing is that once you leave the building, your key will get deactivated; a staff member said that it was better for us for security purposes. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is nice. Clean rooms. Staff is nice and courteous. When the faucet started leaking, they quickly came and fixed it. Convenient location.  My only complaints are that they don't have free breakfast, so you have to patronize them by buying from their restaurant; and no refrigerator or microwave. Another thing is that once you leave the building, your key will get deactivated; a staff member said that it was better for us for security purposes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r436007146-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436007146</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Nice Service</t>
+  </si>
+  <si>
+    <t>Have nothing special to highlight - and at the same time there isn't anything to complain about. Proximity to highway is good feature. Staff was cooperative. Will recommend for those who are looking for low price and mediocre service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Have nothing special to highlight - and at the same time there isn't anything to complain about. Proximity to highway is good feature. Staff was cooperative. Will recommend for those who are looking for low price and mediocre service. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r403285042-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -597,6 +868,57 @@
     <t>Our A/C at home went out so we checked into this hotel hoping for a good night's sleep. The first room we were shown to was on the second floor. The minute we opened the door, we were hit with the horrible smell of strong mold. We went right back to the front desk and asked for another room. The representative apologized and gave us another room. While I was waiting for my key, the woman behind me told me she was also asking for another room. The second room had no odor and was clean. However, the air conditioner was very loud and when we woke up the next morning, there was no hot water. The morning front desk clerk apologized. She didn't say if it was all over the hotel or not. And I felt sorry for her. It's not her fault this place isn't living up to what one expects from a full Holiday Inn. Had it been an Express, maybe I wouldn't have been so surprised. I won't recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r388577456-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388577456</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Clean, &amp;Convenient Location!</t>
+  </si>
+  <si>
+    <t>I enjoyed the Holiday Inn Houston. Everything was really neat and fresh when we got to the room. Check in and check out was really quick and the breakfast was delicious! The only complaint I have was we did see a small roach come out of our air conditioning unit, thank god it was small and that the entrance to the hotel is oddly located where people are merging on the freeway and from off of the interstate. You basically have to pray no one slams into the back of you while trying to make the turn safely. But besides that, no other complaints and I would gladly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>I enjoyed the Holiday Inn Houston. Everything was really neat and fresh when we got to the room. Check in and check out was really quick and the breakfast was delicious! The only complaint I have was we did see a small roach come out of our air conditioning unit, thank god it was small and that the entrance to the hotel is oddly located where people are merging on the freeway and from off of the interstate. You basically have to pray no one slams into the back of you while trying to make the turn safely. But besides that, no other complaints and I would gladly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r385966993-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385966993</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and clean! </t>
+  </si>
+  <si>
+    <t>Nice Spacious rooms, clean and felt new! Good service At reception, although he was alone when we arrived and a line was forming he worked fast and was Nice! Breakfast could be included !! 10$ for a so and so buffé was bot worth IT. Close to highway but dead silent in The rooms!! Good stay over all!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Nice Spacious rooms, clean and felt new! Good service At reception, although he was alone when we arrived and a line was forming he worked fast and was Nice! Breakfast could be included !! 10$ for a so and so buffé was bot worth IT. Close to highway but dead silent in The rooms!! Good stay over all!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r378261842-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -666,6 +988,51 @@
     <t>I was looking forward to taking this trip since I was in town to see the Beyoncé concert and the staff was one of the main reasons for this review.When we arrived the front desk agent Nikki was outside on a smoke break which is something I did not think should be done in the front of the hotel. Checking in she did not smile or talk really...I had to ask what the Wi-Fi was when as a rewards member it should be automatically given to me.Throughout my stay the staff at the front desk seemed to not really care about making the guest feel special at all. They were either staring at the computer or reading books. No greeting from anyone that works there.Also upon checking out the elevator broke down and without proper notice from the staff we had to find out they were broken when we had all our luggage to go and had no choice but to walk down 6 flights of stairs.The only thing I enjoyed was my room and bed …..I just wished my experience here would have been better...but I will not be staying here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r362533002-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362533002</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>This hotel is right next to a very busy freeway yet the noise inside was almost imperceptible. We asked to be put on the back or quiet side and the accommodated our request. We have traveled frequently throughout the U.S. but have never been in a cleaner more well kept hotel. The staff was extremely friendly and helpful, the rooms met expectations. If you have to spend time in this part of town then this is the place to stay in my opinion. we had dinner at the hotel and it was good. The breakfast buffet was a disappointment but I believe we could have ordered off the menu so that's what we would do next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is right next to a very busy freeway yet the noise inside was almost imperceptible. We asked to be put on the back or quiet side and the accommodated our request. We have traveled frequently throughout the U.S. but have never been in a cleaner more well kept hotel. The staff was extremely friendly and helpful, the rooms met expectations. If you have to spend time in this part of town then this is the place to stay in my opinion. we had dinner at the hotel and it was good. The breakfast buffet was a disappointment but I believe we could have ordered off the menu so that's what we would do next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r362393171-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362393171</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>OK stay</t>
+  </si>
+  <si>
+    <t>Visited Houston for the final four and booked hotel thru Delta Vacations. Check in went well and the room was OK but would have enjoyed a fridge.  Long day of traveling from NY and was looking forward to a beverage and some dinner. Bar was not crowded and ordered a drink and a menu. It seemed like everything we ordered was a chore and needed to repeat.  I got a smile from a lady down the bar as apparently she had been going thru the same thing....  When the food arrived we both found our sandwiches to be excellent. The desk arranged a service to transport us to the games at NRG Stadium, which worked out well. Went to the PGA golf tournament on Sunday and got back to the hotel and found no hot water and forced to take a cold shower. Reported this to the front desk after the fact and maintenance was at the door shortly thereafter. He came back later and we were told "the pump quit".  Whatever that meant....  Went to the championship game on Monday night and got back to the hotel at 11:00 to celebrate the Nova victory and the bar was closed. Overall the hotel appears new and clean. The location is quiet but there is nothing within walking distance. Sorry to say, but should I ever visit Houston again I would likely choose another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited Houston for the final four and booked hotel thru Delta Vacations. Check in went well and the room was OK but would have enjoyed a fridge.  Long day of traveling from NY and was looking forward to a beverage and some dinner. Bar was not crowded and ordered a drink and a menu. It seemed like everything we ordered was a chore and needed to repeat.  I got a smile from a lady down the bar as apparently she had been going thru the same thing....  When the food arrived we both found our sandwiches to be excellent. The desk arranged a service to transport us to the games at NRG Stadium, which worked out well. Went to the PGA golf tournament on Sunday and got back to the hotel and found no hot water and forced to take a cold shower. Reported this to the front desk after the fact and maintenance was at the door shortly thereafter. He came back later and we were told "the pump quit".  Whatever that meant....  Went to the championship game on Monday night and got back to the hotel at 11:00 to celebrate the Nova victory and the bar was closed. Overall the hotel appears new and clean. The location is quiet but there is nothing within walking distance. Sorry to say, but should I ever visit Houston again I would likely choose another hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r356385357-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -684,12 +1051,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded April 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 12, 2016</t>
-  </si>
-  <si>
     <t>I really enjoyed my stay here it was a very comfortable hotel and Jose Flores made it very welcoming for me. Very nice guy. This is the place to stay. I would recommend this hotel for anybody coming to Houston or for any circumstances the room was very comfortable the bed was comfortable nice and quiet. More</t>
   </si>
   <si>
@@ -729,6 +1090,42 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r347029539-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347029539</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel/Staff Member Make Big Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work for one of the Nation's largest Opticals. While in town on business, my hectic business week was comforted by a quiet, relaxing, peaceful atmosphere &amp; warm receptionist. I decided to extend my stay Valentine's day weekend &amp; fly my fiancée to join me on a romantic weekend. Mr. Jose Flores at the reception desk was very helpful, courteous, and caring to our needs. Every great hotel needs great employees such as Mr. Flores to keep customers satisfied &amp; protect the company's great reputation. Great Job Holiday Inn-Thanks again---Jose Flores. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r346826980-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346826980</t>
+  </si>
+  <si>
+    <t>Concerning Jose Flores...</t>
+  </si>
+  <si>
+    <t>What a fellow. What a hotel. What an experience. Loved it all and I hope to return some day... :-) did I mention Jose Flores? Because that's the most important part, aside from the rest of everything which is almost as equally awesome as Jose Flores... Who is awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>What a fellow. What a hotel. What an experience. Loved it all and I hope to return some day... :-) did I mention Jose Flores? Because that's the most important part, aside from the rest of everything which is almost as equally awesome as Jose Flores... Who is awesome.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r346563954-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -744,12 +1141,6 @@
     <t>We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you...We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you have a reason to be in the area then this would be a good place to stay.MoreShow less</t>
   </si>
   <si>
-    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded February 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 12, 2016</t>
-  </si>
-  <si>
     <t>We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you...We were in the area for business.  At check-in we were greeted by Charmara.  She was very professional and personable.  Check-in was quick.  In our reservation process we had failed to ask for a in-room frig due to my wife's medicine.  Charmara was very accommodating in changing our room. Also Charmara was very helpful in answering our questions of places we needed to visit in the area and also dining suggestions.  Even to the point of supplying maps to the locations.  The lobby was modern and very clean.  A restaurant was off from the lobby but due to past reviews we chose not try it even though Charmara gave us some vouchers for that evening.  Due to our plans we were unable to use them.  Our room was very clean and comfortable.  The mattress was very comfortable.  The only downside to our stay was only lukewarm water in the shower that evening and the tub was very slippery but that was taken care of by using a hand towel in tub to stand on.  We were in room #510.  The next morning the water was hot for our showers.  We again was greeted by Charmara upon check-out that next morning and mentioned the water temp to her.  She apologized and said that we should have called the front desk about it.  We assured her that it was ok but we thought they just needed to know about it.  If you have a reason to be in the area then this would be a good place to stay.More</t>
   </si>
   <si>
@@ -795,6 +1186,57 @@
     <t>I had a great stay at the Holiday Inn on my recent visit.  The bed was really comfortable and it's obvious housekeeping pays close attention to details. The staff was really helpful and friendly. Nikki the lady that works at the front desk was well versed about the area. She guided me through places to eat and directions to get around.  The lady that works on the floor kim was really friendly and offered to help with  my luggage. I will definitely be returning to this property again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r343403438-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343403438</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel with average rooms.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days. Location is conveniently right off the highway in a quiet neighborhood.Rooms are really small with all the necessities. Bathroom and sink area are strangely designed. You can't safely open the bathroom door if someone is using the sink ( I got hit a few times). Bed is comfortable. A/C unit is really loud but does the job. Daily room service was average, some days better then others. Front desk ladies are very helpful and sweet, where as the other 2 gentlemen were a bit clueless.We had issues with the elevator daily. Most of the time it didn't work and we had to take the stairs down or they have to reset the elevator if we're in the lobby.  Twice my husband got stuck in the elevator, but it was only a few minutes after he pressed the alarm button that he was rescued.Over all it was an ok stay. I'd probably stay somewhere else next time we visit the Bellaire area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days. Location is conveniently right off the highway in a quiet neighborhood.Rooms are really small with all the necessities. Bathroom and sink area are strangely designed. You can't safely open the bathroom door if someone is using the sink ( I got hit a few times). Bed is comfortable. A/C unit is really loud but does the job. Daily room service was average, some days better then others. Front desk ladies are very helpful and sweet, where as the other 2 gentlemen were a bit clueless.We had issues with the elevator daily. Most of the time it didn't work and we had to take the stairs down or they have to reset the elevator if we're in the lobby.  Twice my husband got stuck in the elevator, but it was only a few minutes after he pressed the alarm button that he was rescued.Over all it was an ok stay. I'd probably stay somewhere else next time we visit the Bellaire area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r332610847-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332610847</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Comfortabel</t>
+  </si>
+  <si>
+    <t>Not a special hotel.Neighbourhood not interesting. Was here for business for twelve days. People a really service minded. Sometimes mistakes with the orders in the restaurant or bar, but always serving with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Not a special hotel.Neighbourhood not interesting. Was here for business for twelve days. People a really service minded. Sometimes mistakes with the orders in the restaurant or bar, but always serving with a smile.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r331932837-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -810,15 +1252,6 @@
     <t>I have stayed at this hotel for about two weeks. What made my stay really pleasant, was the extremely friendly staff! Rooms are spacious, gym is small but enough. Not a very new hotel, but I'd definitely recommend it! Internet was also one of the fastest I've experienced in a hotel. Big plus for business stays. MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>Joelhey B, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded December 17, 2015</t>
-  </si>
-  <si>
-    <t>Responded December 17, 2015</t>
-  </si>
-  <si>
     <t>I have stayed at this hotel for about two weeks. What made my stay really pleasant, was the extremely friendly staff! Rooms are spacious, gym is small but enough. Not a very new hotel, but I'd definitely recommend it! Internet was also one of the fastest I've experienced in a hotel. Big plus for business stays. More</t>
   </si>
   <si>
@@ -870,6 +1303,39 @@
     <t>Friendly staff with clean hotel rooms. Breakfast was good. Front Desk staff was knowledgeable. Location is nice and safe. Room rate is acceptable because of convenient location. Little issue at check out but Manager Joelhey resolved the issue later. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r325602993-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325602993</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Very Good Hotel...</t>
+  </si>
+  <si>
+    <t>Stayed 11/6.  Very nice lobby and great check in by friendly clerk.  Everything seemed clean and new.  Two elevators available to take you to your room.  Carpets in hallway and room appear to be new.Our room was large, very clean and well maintained.  There was a small fridge in the room which we did not expect from the Holiday Inn chain.  Wifi worked well.  TV had plenty of channels.  Beds were very comfortable.Unfortunately, traffic was bad and there was no restaurant close by, so we ate in the hotel restaurant.  This is something we rarely do but were quite pleased by the quality of the food and friendly staff.  Still a bit more costly than you could get at a restaurant, but seemed like good value to us at the time.  All in all, a very nice stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 11/6.  Very nice lobby and great check in by friendly clerk.  Everything seemed clean and new.  Two elevators available to take you to your room.  Carpets in hallway and room appear to be new.Our room was large, very clean and well maintained.  There was a small fridge in the room which we did not expect from the Holiday Inn chain.  Wifi worked well.  TV had plenty of channels.  Beds were very comfortable.Unfortunately, traffic was bad and there was no restaurant close by, so we ate in the hotel restaurant.  This is something we rarely do but were quite pleased by the quality of the food and friendly staff.  Still a bit more costly than you could get at a restaurant, but seemed like good value to us at the time.  All in all, a very nice stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r323149308-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323149308</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Stay </t>
+  </si>
+  <si>
+    <t>We stayed here for 12 days but got to say all 12 days the breakfast was same so was little disappointed. They gave us discount for 12 days stay but let down in brrakfast. Also nice room and good location but for more nice rooms and better breakfast visit Holiday Inn Express and Suites in same area just there address is 14444 Southwest Sugarland.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r320065422-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1412,51 @@
   </si>
   <si>
     <t>Newly remodeled, and new young and energetic staff providing excellent service and great value. We had used the hotel for a wedding event and all the guests were extremely happy with the accommodation provided and everyone from the owner and manager to the check-in staff were very cooperative.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r297305217-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297305217</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay well worth the price </t>
+  </si>
+  <si>
+    <t>I booked this hotel stay last minute through trip advisor for a great price $54. I'm used to paying around $90-120 for this caliber of hotel. The lobby was open and spacious and decorated well. The workers were very nice and accommodating. I tried to check in around 2, check in is 3, they offered to call me when the room was ready and did just that. All rooms are accessed by going through the lobby so it doesn't matter where you park. The rooms are nice and spacious with good decor and the bathroom isn't cramped. I did have dried paint in my bath tub which I couldn't remove by cleaning but I still give a great review bc everything else was great. They have ballrooms and an office in the lobby with multiple computers and a printer. They have 1 pool outside and one inside. The inside one has a small hot tub attached to it. I loved the restaurant/bar attached to the hotel App8tite. The food was good and so are the prices prepare to spent $6-15. It has a variety of food to choose from; I had shrimp quesadillas my sis has chicken tenders and my mom had wings all of the food was good and well seasoned. I was craving fried pickles and although they aren't on the menu the cook whipped them up for us. The bartenders were very personable and good at creating...I booked this hotel stay last minute through trip advisor for a great price $54. I'm used to paying around $90-120 for this caliber of hotel. The lobby was open and spacious and decorated well. The workers were very nice and accommodating. I tried to check in around 2, check in is 3, they offered to call me when the room was ready and did just that. All rooms are accessed by going through the lobby so it doesn't matter where you park. The rooms are nice and spacious with good decor and the bathroom isn't cramped. I did have dried paint in my bath tub which I couldn't remove by cleaning but I still give a great review bc everything else was great. They have ballrooms and an office in the lobby with multiple computers and a printer. They have 1 pool outside and one inside. The inside one has a small hot tub attached to it. I loved the restaurant/bar attached to the hotel App8tite. The food was good and so are the prices prepare to spent $6-15. It has a variety of food to choose from; I had shrimp quesadillas my sis has chicken tenders and my mom had wings all of the food was good and well seasoned. I was craving fried pickles and although they aren't on the menu the cook whipped them up for us. The bartenders were very personable and good at creating drinks for us as we didn't know exactly what we wanted to drink. All in all I loved my stay and will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Lydia T, Front Office Manager at Holiday Inn Houston SW - Sugar Land Area, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel stay last minute through trip advisor for a great price $54. I'm used to paying around $90-120 for this caliber of hotel. The lobby was open and spacious and decorated well. The workers were very nice and accommodating. I tried to check in around 2, check in is 3, they offered to call me when the room was ready and did just that. All rooms are accessed by going through the lobby so it doesn't matter where you park. The rooms are nice and spacious with good decor and the bathroom isn't cramped. I did have dried paint in my bath tub which I couldn't remove by cleaning but I still give a great review bc everything else was great. They have ballrooms and an office in the lobby with multiple computers and a printer. They have 1 pool outside and one inside. The inside one has a small hot tub attached to it. I loved the restaurant/bar attached to the hotel App8tite. The food was good and so are the prices prepare to spent $6-15. It has a variety of food to choose from; I had shrimp quesadillas my sis has chicken tenders and my mom had wings all of the food was good and well seasoned. I was craving fried pickles and although they aren't on the menu the cook whipped them up for us. The bartenders were very personable and good at creating...I booked this hotel stay last minute through trip advisor for a great price $54. I'm used to paying around $90-120 for this caliber of hotel. The lobby was open and spacious and decorated well. The workers were very nice and accommodating. I tried to check in around 2, check in is 3, they offered to call me when the room was ready and did just that. All rooms are accessed by going through the lobby so it doesn't matter where you park. The rooms are nice and spacious with good decor and the bathroom isn't cramped. I did have dried paint in my bath tub which I couldn't remove by cleaning but I still give a great review bc everything else was great. They have ballrooms and an office in the lobby with multiple computers and a printer. They have 1 pool outside and one inside. The inside one has a small hot tub attached to it. I loved the restaurant/bar attached to the hotel App8tite. The food was good and so are the prices prepare to spent $6-15. It has a variety of food to choose from; I had shrimp quesadillas my sis has chicken tenders and my mom had wings all of the food was good and well seasoned. I was craving fried pickles and although they aren't on the menu the cook whipped them up for us. The bartenders were very personable and good at creating drinks for us as we didn't know exactly what we wanted to drink. All in all I loved my stay and will be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r295107792-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295107792</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Everything was amazing!!</t>
+  </si>
+  <si>
+    <t>Everything was amazing!! Great staff... The resturant had great food... We were the first people to stay in our room and it felt nice and new.. Internet was super fast.. We plan to visit the hotel again soon and would recommend the hotel to othere..MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was amazing!! Great staff... The resturant had great food... We were the first people to stay in our room and it felt nice and new.. Internet was super fast.. We plan to visit the hotel again soon and would recommend the hotel to othere..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98981-r293936316-Holiday_Inn_Houston_SW_Sugar_Land_Area-Houston_Texas.html</t>
@@ -1522,7 +2033,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1533,16 +2044,20 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1558,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1567,43 +2082,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1619,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1628,22 +2139,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
@@ -1660,7 +2171,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1697,35 +2208,31 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1741,31 +2248,35 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1778,7 +2289,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1794,34 +2305,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1832,14 +2343,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1855,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1864,49 +2371,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1922,7 +2427,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1931,49 +2436,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1989,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1998,49 +2501,35 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" t="s">
-        <v>99</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -2056,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2065,25 +2554,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2095,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2117,7 +2606,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2126,43 +2615,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2178,7 +2671,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2187,22 +2680,26 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2213,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -2235,7 +2732,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2244,43 +2741,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2296,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2305,32 +2808,34 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>4</v>
@@ -2339,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -2361,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2370,49 +2875,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
         <v>5</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y16" t="s">
         <v>159</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -2428,7 +2933,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2437,34 +2942,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2473,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -2495,7 +3000,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2504,25 +3009,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2534,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -2556,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2565,49 +3070,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -2623,7 +3122,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2632,49 +3131,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -2690,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2699,47 +3192,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" t="s">
-        <v>74</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -2755,7 +3240,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2764,49 +3249,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -2822,7 +3301,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2831,43 +3310,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -2883,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2892,47 +3377,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
         <v>222</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>223</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -2948,7 +3429,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2957,45 +3438,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
@@ -3011,58 +3494,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
         <v>237</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" t="s">
-        <v>240</v>
-      </c>
-      <c r="L26" t="s">
-        <v>241</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
         <v>5</v>
       </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3078,7 +3561,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3087,25 +3570,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3117,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="X27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -3139,58 +3622,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
         <v>250</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>251</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>252</v>
       </c>
-      <c r="K28" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" t="s">
-        <v>254</v>
-      </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
@@ -3206,52 +3683,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
         <v>259</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>260</v>
-      </c>
-      <c r="J29" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" t="s">
-        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -3267,58 +3750,52 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
         <v>268</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>269</v>
       </c>
-      <c r="J30" t="s">
-        <v>270</v>
-      </c>
-      <c r="K30" t="s">
-        <v>271</v>
-      </c>
-      <c r="L30" t="s">
-        <v>272</v>
-      </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -3334,52 +3811,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
         <v>277</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>278</v>
       </c>
-      <c r="J31" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" t="s">
-        <v>280</v>
-      </c>
-      <c r="L31" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>282</v>
-      </c>
       <c r="O31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -3395,35 +3878,31 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
         <v>284</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>285</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>286</v>
       </c>
-      <c r="K32" t="s">
-        <v>287</v>
-      </c>
-      <c r="L32" t="s">
-        <v>288</v>
-      </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>282</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -3434,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
         <v>289</v>
-      </c>
-      <c r="X32" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="33">
@@ -3456,56 +3935,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
         <v>292</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>293</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>294</v>
-      </c>
-      <c r="K33" t="s">
-        <v>295</v>
-      </c>
-      <c r="L33" t="s">
-        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
+        <v>296</v>
+      </c>
+      <c r="X33" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y33" t="s">
         <v>298</v>
-      </c>
-      <c r="X33" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -3521,62 +3996,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
         <v>301</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>302</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>303</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>304</v>
       </c>
-      <c r="L34" t="s">
-        <v>305</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>306</v>
-      </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>305</v>
+      </c>
+      <c r="X34" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y34" t="s">
         <v>307</v>
-      </c>
-      <c r="X34" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="35">
@@ -3592,58 +4063,56 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
         <v>310</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>311</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>312</v>
       </c>
-      <c r="K35" t="s">
-        <v>313</v>
-      </c>
-      <c r="L35" t="s">
-        <v>314</v>
-      </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
@@ -3659,54 +4128,1586 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
         <v>318</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>319</v>
-      </c>
-      <c r="J36" t="s">
-        <v>320</v>
-      </c>
-      <c r="K36" t="s">
-        <v>321</v>
-      </c>
-      <c r="L36" t="s">
-        <v>322</v>
-      </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>319</v>
+      </c>
+      <c r="X36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s">
-        <v>322</v>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>328</v>
+      </c>
+      <c r="X37" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>328</v>
+      </c>
+      <c r="X38" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>328</v>
+      </c>
+      <c r="X40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s">
+        <v>364</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>365</v>
+      </c>
+      <c r="X43" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>365</v>
+      </c>
+      <c r="X44" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>365</v>
+      </c>
+      <c r="X45" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>385</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>393</v>
+      </c>
+      <c r="X47" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>402</v>
+      </c>
+      <c r="X49" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>402</v>
+      </c>
+      <c r="X51" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>427</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>428</v>
+      </c>
+      <c r="J52" t="s">
+        <v>429</v>
+      </c>
+      <c r="K52" t="s">
+        <v>430</v>
+      </c>
+      <c r="L52" t="s">
+        <v>431</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X52" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
+        <v>437</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>425</v>
+      </c>
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s">
+        <v>442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>443</v>
+      </c>
+      <c r="X54" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>446</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" t="s">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s">
+        <v>450</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>451</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>452</v>
+      </c>
+      <c r="X55" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>470</v>
+      </c>
+      <c r="X57" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>460</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>470</v>
+      </c>
+      <c r="X58" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>480</v>
+      </c>
+      <c r="J59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>484</v>
+      </c>
+      <c r="X59" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>488</v>
+      </c>
+      <c r="J60" t="s">
+        <v>489</v>
+      </c>
+      <c r="K60" t="s">
+        <v>490</v>
+      </c>
+      <c r="L60" t="s">
+        <v>491</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>492</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
